--- a/data/income_statement/2digits/total/43_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/43_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>43-Specialised construction activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>43-Specialised construction activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,170 +841,195 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>14692768.14476</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>17106141.69947</v>
+        <v>17106777.44078</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>22642991.27055</v>
+        <v>22643110.52601</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>26280469.69763</v>
+        <v>26429837.90058</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>32254150.70365</v>
+        <v>32411741.16615</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>37431381.95863</v>
+        <v>37922015.24838001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>41184948.70157</v>
+        <v>43950182.1047</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>52345151.59783</v>
+        <v>51391488.97821</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>65193225.24440999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>76606625.92672001</v>
+        <v>76926131.21500999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>75013782.07456999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>76808330.14930999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>76965997.715</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>13602832.01639</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>15974201.64651</v>
+        <v>15974837.38782</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>21226857.62476</v>
+        <v>21226976.88022</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>24627052.15688</v>
+        <v>24774163.56746</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>29933887.38336</v>
+        <v>30087579.88285</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>34638341.31013001</v>
+        <v>35122307.51341</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>39002806.17268</v>
+        <v>41597105.96361</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>49911296.91287</v>
+        <v>48951025.77312</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>61548532.62289</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>71908304.67624</v>
+        <v>72217857.55494</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>69269988.21610001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>71002064.62663001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>70750936.93099999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>707903.8863800002</v>
+        <v>707903.88638</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>743124.9166600001</v>
+        <v>743124.91666</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>985204.13395</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1156619.18452</v>
+        <v>1157822.61075</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1696720.93306</v>
+        <v>1699443.9748</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2137978.08842</v>
+        <v>2141859.42241</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1516937.27405</v>
+        <v>1652401.96179</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1656283.37615</v>
+        <v>1658959.65563</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>2612233.96383</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3437210.01257</v>
+        <v>3443169.7845</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4535384.832380001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4577577.61016</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4998508.761</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>382032.24199</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>388815.1363000001</v>
+        <v>388815.1363</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>430929.5118400001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>496798.35623</v>
+        <v>497851.72237</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>623542.38723</v>
+        <v>624717.3085</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>655062.5600800001</v>
+        <v>657848.31256</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>665205.25484</v>
+        <v>700674.1793</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>777571.30881</v>
+        <v>781503.54946</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1032458.65769</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1261111.23791</v>
+        <v>1265103.87557</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1208409.02609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1228687.91252</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1216552.023</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>88278.21090999999</v>
@@ -1115,34 +1041,39 @@
         <v>142734.53099</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>162631.8585</v>
+        <v>162798.97867</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>167838.2574</v>
+        <v>167879.40696</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>187414.67518</v>
+        <v>188961.19331</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>229838.22581</v>
+        <v>247268.3985</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1445621.62818</v>
+        <v>447782.5185900001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>589386.69119</v>
+        <v>589386.6911899999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>895245.78174</v>
+        <v>896388.85736</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>611480.2604400001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>613866.16853</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1229634.793</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>53623.95658</v>
@@ -1154,34 +1085,39 @@
         <v>98345.04599000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>103686.95198</v>
+        <v>103849.27072</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>121707.64897</v>
+        <v>121748.22261</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>132506.88162</v>
+        <v>133674.38652</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>164240.57425</v>
+        <v>177764.57211</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1358695.92503</v>
+        <v>360856.81544</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>508987.5142</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>803359.89394</v>
+        <v>804352.3111099999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>531756.2276699999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>533763.94883</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1112342.519</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>18915.62197</v>
@@ -1193,16 +1129,16 @@
         <v>36840.39113</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>54857.92203</v>
+        <v>54861.93749000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>34097.40881</v>
+        <v>34097.91729</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>37249.57307999999</v>
+        <v>37422.86052</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>51590.36884999999</v>
+        <v>55116.70347</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>52184.41501</v>
@@ -1211,16 +1147,21 @@
         <v>52085.39445</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>53752.76078</v>
+        <v>53755.01716</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>40937.73458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>41209.79016</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>68440.67200000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>15738.63236</v>
@@ -1229,19 +1170,19 @@
         <v>4226.41904</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7549.09387</v>
+        <v>7549.093869999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4086.984489999999</v>
+        <v>4087.77046</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>12033.19962</v>
+        <v>12033.26706</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>17658.22048</v>
+        <v>17863.94627</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>14007.28271</v>
+        <v>14387.12292</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>34741.28814</v>
@@ -1250,94 +1191,109 @@
         <v>28313.78254</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>38133.12701999999</v>
+        <v>38281.52909</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>38786.29818999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>38892.42954</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>48851.602</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>14604489.93385</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>17013093.07814</v>
+        <v>17013728.81945</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>22500256.73956</v>
+        <v>22500375.99502</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>26117837.83913</v>
+        <v>26267038.92191</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>32086312.44625</v>
+        <v>32243861.75919</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>37243967.28345</v>
+        <v>37733054.05507</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>40955110.47576</v>
+        <v>43702913.7062</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>50899529.96965</v>
+        <v>50943706.45962001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>64603838.55322</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>75711380.14498</v>
+        <v>76029742.35765</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>74402301.81413001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>76194463.98078001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>75736362.92200001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>12210373.25928</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>14404440.03798</v>
+        <v>14404945.01188</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>19167742.58023</v>
+        <v>19167762.8729</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>22404813.03666</v>
+        <v>22552334.16928</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>27564122.465</v>
+        <v>27697324.46153</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>32170200.87122</v>
+        <v>32621473.0021</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>35385882.7004</v>
+        <v>37923029.62624</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>43585644.99333</v>
+        <v>43621131.37789</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>55608539.41187</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>66026125.75996</v>
+        <v>66310990.09901001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>64175433.67096001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>65780301.50832</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>66013268.253</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1758178.83135</v>
@@ -1349,34 +1305,39 @@
         <v>2555947.3859</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2891036.53079</v>
+        <v>2893129.78415</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3360988.16841</v>
+        <v>3367573.48879</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4355414.4225</v>
+        <v>4401005.97745</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4587640.951619999</v>
+        <v>4740790.63705</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5835649.95867</v>
+        <v>5836374.034809999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>7804790.987</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9058224.093</v>
+        <v>9083693.995879998</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>8857909.099920001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9101311.56893</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>9775411.455</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>3743621.56111</v>
@@ -1385,193 +1346,218 @@
         <v>4577810.1315</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>5981289.187950001</v>
+        <v>5981289.18795</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>7036189.0155</v>
+        <v>7045425.76458</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>8182111.198160001</v>
+        <v>8205822.164480001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>9169996.34474</v>
+        <v>9254287.77341</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>11059787.72393</v>
+        <v>11351535.48652</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>12938781.07828</v>
+        <v>12958389.07261</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>16003548.08436</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>19584986.17199</v>
+        <v>19735057.79377</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>18818004.31574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19442423.04052</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>21468255.18</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>6647417.57706</v>
+        <v>6647417.577059999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7924757.115350001</v>
+        <v>7925262.08925</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>10537043.40769</v>
+        <v>10537063.70036</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>12403991.85284</v>
+        <v>12540164.08471</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>15884827.14025</v>
+        <v>15985426.80379</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>18474638.87671</v>
+        <v>18793137.67709</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>19570085.36567</v>
+        <v>21653066.13867</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>24613622.32547</v>
+        <v>24627784.41284</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>31463134.76829</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>36968571.8178</v>
+        <v>37077441.83585</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>36025797.72537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>36756136.90529</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>34265929.446</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>61155.28976000001</v>
+        <v>61155.28976</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>51895.76817</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>93462.59869</v>
+        <v>93462.59868999998</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>73595.63753000001</v>
+        <v>73614.53584</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>136195.95818</v>
+        <v>138502.00447</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>170151.22727</v>
+        <v>173041.57415</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>168368.65918</v>
+        <v>177637.364</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>197591.63091</v>
+        <v>198583.85763</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>337065.57222</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>414343.67717</v>
+        <v>414796.47351</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>473722.52993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>480429.9935800001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>503672.172</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2394116.67457</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2608653.04016</v>
+        <v>2608783.80757</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3332514.15933</v>
+        <v>3332613.12212</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3713024.80247</v>
+        <v>3714704.75263</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4522189.98125</v>
+        <v>4546537.29766</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5073766.412230001</v>
+        <v>5111581.052970001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5569227.775359999</v>
+        <v>5779884.07996</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7313884.97632</v>
+        <v>7322575.08173</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>8995299.141349999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>9685254.385020001</v>
+        <v>9718752.258639999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>10226868.14317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10414162.47246</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9723094.669</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1637435.19714</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1857415.37992</v>
+        <v>1857547.16474</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2359810.13166</v>
+        <v>2359836.29685</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2618189.016319999</v>
+        <v>2626692.21312</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3078176.75047</v>
+        <v>3096606.1876</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3510520.38048</v>
+        <v>3558733.40954</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3708806.2486</v>
+        <v>3903464.06918</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4488537.528639999</v>
+        <v>4500340.89656</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>5240613.25614</v>
+        <v>5240613.256139999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>6291381.60467</v>
+        <v>6322913.421030001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6524512.81728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6629978.473110001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6676954.478</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>10406.53586</v>
@@ -1583,34 +1569,39 @@
         <v>6105.46017</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4276.115069999999</v>
+        <v>4276.89897</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>7418.927819999999</v>
+        <v>7418.92782</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6961.047449999999</v>
+        <v>6962.11545</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>11143.84828</v>
+        <v>11326.46573</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>8879.689679999999</v>
+        <v>8880.27923</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>7794.729530000001</v>
+        <v>7794.72953</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>11031.14858</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>47552.40649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>47356.57921</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>57097.195</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>230952.96899</v>
@@ -1619,154 +1610,174 @@
         <v>256690.91573</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>342715.01676</v>
+        <v>342715.97689</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>382253.1212</v>
+        <v>382480.1297999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>451898.45713</v>
+        <v>452746.90049</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>490015.20375</v>
+        <v>495547.252</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>534606.8102000001</v>
+        <v>556473.8719299999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>640344.03189</v>
+        <v>642825.73149</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>799985.1660900001</v>
+        <v>799985.16609</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1001427.33646</v>
+        <v>1004086.02871</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1033200.30823</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1049975.71607</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>983107.696</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1396075.69229</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1596641.42058</v>
+        <v>1596773.2054</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2010989.65473</v>
+        <v>2011014.85979</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2231659.78005</v>
+        <v>2239935.18435</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2618859.36552</v>
+        <v>2636440.35929</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3013544.12928</v>
+        <v>3056224.04209</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3163055.59012</v>
+        <v>3335663.73152</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3839313.80707</v>
+        <v>3848634.88584</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4432833.360520001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5278923.11963</v>
+        <v>5307796.24374</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5443760.10256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5532646.177830001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5636749.587</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>756681.47743</v>
+        <v>756681.4774300001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>751237.66024</v>
+        <v>751236.6428299999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>972704.02767</v>
+        <v>972776.82527</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1094835.78615</v>
+        <v>1088012.53951</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1444013.23078</v>
+        <v>1449931.11006</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1563246.03175</v>
+        <v>1552847.64343</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1860421.52676</v>
+        <v>1876420.01078</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2825347.44768</v>
+        <v>2822234.18517</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>3754685.88521</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3393872.78035</v>
+        <v>3395838.83761</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3702355.32589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3784183.99935</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3046140.191</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>681254.97585</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>572265.25816</v>
+        <v>572265.8476699999</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>619723.77521</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>638618.12154</v>
+        <v>638810.5629100001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>717232.04441</v>
+        <v>718531.36086</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>934856.56742</v>
+        <v>938973.3090600002</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1287082.75256</v>
+        <v>1654024.44453</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1895687.42245</v>
+        <v>1907861.40826</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2183288.14416</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>6629382.79795</v>
+        <v>6630076.85932</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3317157.64026</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3326807.92508</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4511125.847</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>30875.55261</v>
@@ -1775,7 +1786,7 @@
         <v>36933.6015</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>32661.391</v>
+        <v>32661.39100000001</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>20328.82025</v>
@@ -1784,34 +1795,39 @@
         <v>37349.19944</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>28666.86153</v>
+        <v>28695.25453</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>28843.46285</v>
+        <v>32185.62538</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>43387.91971</v>
+        <v>43396.83399</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>109268.78995</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>87456.7597</v>
+        <v>87456.75970000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>350951.5138399999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>351091.9258200001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>89823.01300000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>252456.69188</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>221705.4078999999</v>
+        <v>221705.4079</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>152891.99602</v>
@@ -1823,13 +1839,13 @@
         <v>26694.19738</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>85076.76231999999</v>
+        <v>85442.96029999998</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5362.1273</v>
+        <v>9693.97766</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>6564.519599999999</v>
+        <v>6580.05205</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>5611.41578</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>135815.29785</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>40742.003</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>53671.00925</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>48666.82333000001</v>
+        <v>48667.21088000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>56927.92908</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>72749.83864</v>
+        <v>72777.15882</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>72453.63079</v>
+        <v>72514.15586</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>94951.40706</v>
+        <v>95783.86501000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>121494.06476</v>
+        <v>137630.56237</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>184825.08821</v>
+        <v>190123.42824</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>211958.02812</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>379137.5547100001</v>
+        <v>379158.42862</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>367492.66276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>370364.79611</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>267267.604</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2706.6048</v>
@@ -1892,40 +1918,45 @@
         <v>3299.74016</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>5493.5314</v>
+        <v>5493.531400000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>3299.58756</v>
+        <v>3300.65656</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>5339.31863</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5473.616919999999</v>
+        <v>5473.619130000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2209.43941</v>
+        <v>2241.83359</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>2894.63208</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>7400.71729</v>
+        <v>7400.717290000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>7978.01969</v>
+        <v>8011.663590000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4955.946400000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5603.66552</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7537.02</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5805.03795</v>
+        <v>5805.037949999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>6013.0681</v>
@@ -1940,10 +1971,10 @@
         <v>17109.36108</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>12789.57165</v>
+        <v>12789.89801</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>11857.48303</v>
+        <v>12855.39989</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>12442.21466</v>
@@ -1952,16 +1983,21 @@
         <v>37725.69064</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>33938.91081</v>
+        <v>34089.55702</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>23216.70836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>24664.05692</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>28134.989</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>5843.18921</v>
@@ -1973,19 +2009,19 @@
         <v>19345.56076</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>4150.740750000001</v>
+        <v>4150.755999999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>7226.52053</v>
+        <v>7230.25722</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5362.16557</v>
+        <v>5371.26492</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>152656.0531</v>
+        <v>152990.71521</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>15519.89327</v>
+        <v>15566.53513</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>9060.164929999999</v>
@@ -1994,55 +2030,65 @@
         <v>12781.97178</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>19082.29948</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>19094.60216</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>47744.463</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>263871.70091</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>183245.93308</v>
+        <v>183246.13504</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>276334.2361</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>212531.79613</v>
+        <v>212660.39197</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>417822.27096</v>
+        <v>419006.86207</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>597799.05097</v>
+        <v>600274.2666900001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>840487.98766</v>
+        <v>1174175.29898</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1384076.5096</v>
+        <v>1389650.42268</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1553066.0084</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5746660.38264</v>
+        <v>5747616.74462</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2134503.72693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2136959.01545</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3731945.298</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>408.53743</v>
+        <v>408.5374299999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>350.50318</v>
@@ -2057,7 +2103,7 @@
         <v>4623.69748</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>2403.33183</v>
+        <v>2500.32371</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>1191.09745</v>
@@ -2066,22 +2112,27 @@
         <v>737.8065600000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>712.3741799999999</v>
+        <v>712.37418</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>1652.6169</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1332.20351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1332.20336</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>65.29300000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>649.7685399999999</v>
+        <v>649.76854</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>818.2851699999999</v>
@@ -2099,7 +2150,7 @@
         <v>216.32715</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>685.55315</v>
+        <v>685.5531500000001</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>211.19315</v>
@@ -2108,19 +2159,24 @@
         <v>605.3057000000001</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>899.1749700000001</v>
+        <v>899.1749699999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>940.9994700000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>940.99947</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>1268.968</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>64966.88327</v>
+        <v>64966.88327000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>65349.02466</v>
@@ -2129,73 +2185,83 @@
         <v>68721.67839</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>88926.38281</v>
+        <v>88961.82390999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>128043.23505</v>
+        <v>128093.69863</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>102117.47242</v>
+        <v>102425.52961</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>122295.48385</v>
+        <v>130374.38085</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>245027.64561</v>
+        <v>246258.28972</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>247879.64917</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>333951.9563500001</v>
+        <v>333484.49172</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>278866.28166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>280941.36242</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>296597.196</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>263915.49207</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>230473.10673</v>
+        <v>230473.21578</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>343888.43903</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>354445.12119</v>
+        <v>354770.46903</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>571129.0972999999</v>
+        <v>574457.1416200001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>722350.6669699999</v>
+        <v>725502.9159400001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>969493.4095399999</v>
+        <v>1332559.75997</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1494849.93947</v>
+        <v>1496976.15072</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1750524.36325</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>6206199.756770001</v>
+        <v>6207538.59108</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2624821.9382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2640498.476439999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3945902.701</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>6992.17235</v>
@@ -2210,31 +2276,36 @@
         <v>5153.31701</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7004.95464</v>
+        <v>7041.00305</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7126.103810000001</v>
+        <v>7128.274770000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>7414.415909999999</v>
+        <v>7699.39384</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>13115.62871</v>
+        <v>13122.96343</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>11253.51315</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>17572.10836</v>
+        <v>17574.73625000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>14230.22671</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>14919.61128</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8496.652</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>29452.78317</v>
@@ -2246,37 +2317,42 @@
         <v>38921.91411999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>61281.92681</v>
+        <v>61286.07388</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>66024.92714</v>
+        <v>66024.92714000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>51614.78439</v>
+        <v>51682.47619</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>82529.93558</v>
+        <v>87409.25291</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>127901.81485</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>90568.35519999999</v>
+        <v>90568.35520000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>183209.97059</v>
+        <v>183359.76563</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>140605.90717</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>144209.58583</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>120306.176</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>775.33084</v>
+        <v>775.3308400000001</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>3596.51504</v>
@@ -2285,16 +2361,16 @@
         <v>5511.02714</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>844.4341599999999</v>
+        <v>844.44792</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>2798.11781</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1419.49167</v>
+        <v>1435.75139</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>10172.46394</v>
+        <v>11090.61448</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>13864.99828</v>
@@ -2303,55 +2379,65 @@
         <v>10151.46896</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>4987.47955</v>
+        <v>4987.479550000001</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>21901.17557</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>10561.185</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>188962.17197</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>160973.54845</v>
+        <v>160973.6575</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>255875.13585</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>210599.09661</v>
+        <v>210866.67539</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>453448.53568</v>
+        <v>456584.12031</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>591016.62175</v>
+        <v>593526.34558</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>806144.9868600001</v>
+        <v>1159853.43075</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1250742.46381</v>
+        <v>1252497.24213</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1543441.77844</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5806268.30223</v>
+        <v>5807439.810230001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2241232.90974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2243118.21949</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3682201.027</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>185.99419</v>
@@ -2366,10 +2452,10 @@
         <v>1632.76252</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3841.33688</v>
+        <v>3841.336880000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>3105.77932</v>
+        <v>3176.49856</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>1502.49371</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>1349.02807</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>40.577</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>672.3273999999999</v>
+        <v>672.3274</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>649.86049</v>
@@ -2402,16 +2493,16 @@
         <v>1868.30191</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>689.1164600000001</v>
+        <v>689.11646</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2.47868</v>
+        <v>47.43497</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>27.37866</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>71.65536</v>
+        <v>118.52016</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>5.15421</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>450.45415</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>5.897</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>36874.71215000001</v>
@@ -2441,112 +2537,127 @@
         <v>34787.32349</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>74244.46762000001</v>
+        <v>74298.07584999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>38008.74647</v>
+        <v>38120.20146</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>68040.50737000001</v>
+        <v>68526.19078999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>61657.45818</v>
+        <v>64886.05412000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>88154.76873</v>
+        <v>88518.86693999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>94110.76056</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>192034.741</v>
+        <v>192049.64438</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>205052.23679</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>214550.40205</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>124291.187</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>291392.33642</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>203541.60901</v>
+        <v>203544.51619</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>262889.42111</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>363143.50786</v>
+        <v>369480.05604</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>410255.94341</v>
+        <v>413836.19905</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>527322.0514999999</v>
+        <v>532725.95149</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>638668.0035399999</v>
+        <v>674685.6951099999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>801342.76294</v>
+        <v>804114.97589</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1103925.13345</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1782983.42218</v>
+        <v>1784110.07022</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1670786.77627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1685800.58842</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1277113.914</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>262354.32562</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>184277.39264</v>
+        <v>184280.29982</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>239161.10282</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>343403.26841</v>
+        <v>349720.69324</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>377043.83802</v>
+        <v>380496.07493</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>480987.3275600001</v>
+        <v>486350.96589</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>590756.58898</v>
+        <v>626446.52813</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>749178.2041</v>
+        <v>751950.41705</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1039858.90594</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1668397.12608</v>
+        <v>1669504.38509</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1596265.73796</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1610923.25856</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1220180.259</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>29038.0108</v>
@@ -2558,112 +2669,127 @@
         <v>23728.31829</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>19740.23945</v>
+        <v>19759.3628</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>33212.10539</v>
+        <v>33340.12412</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>46334.72394</v>
+        <v>46374.98559999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>47911.41456</v>
+        <v>48239.16698</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>52164.55884</v>
+        <v>52164.55884000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>64066.22750999999</v>
+        <v>64066.22751</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>114586.2961</v>
+        <v>114605.68513</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>74521.03831</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>74877.32985999998</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>56933.655</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>882628.62479</v>
+        <v>882628.6247899999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>889488.20266</v>
+        <v>889484.7585300001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>985649.9427400001</v>
+        <v>985722.7403399999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1015865.27864</v>
+        <v>1002572.57735</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1179860.23448</v>
+        <v>1180169.13025</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1248429.8807</v>
+        <v>1233592.08506</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1539342.86624</v>
+        <v>1523199.00023</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2424842.16772</v>
+        <v>2429004.46682</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>3083524.53267</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2034072.39935</v>
+        <v>2034267.03563</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2723904.25168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2784692.85957</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2334249.423</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>95867.47001</v>
+        <v>95867.47000999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>123309.97006</v>
+        <v>123309.99467</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>158641.84756</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>263025.84422</v>
+        <v>266780.1159</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>255367.53128</v>
+        <v>256015.29632</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>299434.01914</v>
+        <v>303770.70945</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>348360.58891</v>
+        <v>381781.36516</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>610178.34915</v>
+        <v>610728.6137100001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>667535.66971</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>714299.39062</v>
+        <v>715107.59375</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>732220.515</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>739085.80736</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>846494.762</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>9018.607380000001</v>
@@ -2675,7 +2801,7 @@
         <v>7897.273169999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>9606.949619999999</v>
+        <v>9606.949620000001</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>24744.03853</v>
@@ -2684,7 +2810,7 @@
         <v>19010.06666</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>27187.59497</v>
+        <v>32745.4182</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>27444.7184</v>
@@ -2693,118 +2819,133 @@
         <v>14183.19629</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>20165.24876</v>
+        <v>20173.73634</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>15264.7772</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>15333.73837</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>34340.62</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>86848.86262999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>111795.3826</v>
+        <v>111795.40721</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>150744.57439</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>253418.8946</v>
+        <v>257173.16628</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>230623.49275</v>
+        <v>231271.25779</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>280423.95248</v>
+        <v>284760.64279</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>321172.9939400001</v>
+        <v>349035.94696</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>582733.63075</v>
+        <v>583283.8953099999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>653352.4734200001</v>
+        <v>653352.4734199999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>694134.1418599999</v>
+        <v>694933.8574100001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>716955.7378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>723752.0689900001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>812154.142</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>139820.94987</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>161868.70209</v>
+        <v>161870.78455</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>929488.77282</v>
+        <v>929488.7728200002</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>193879.8142</v>
+        <v>197117.77875</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>241626.8317</v>
+        <v>242802.76528</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>611822.80375</v>
+        <v>618859.38876</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>338001.28936</v>
+        <v>363303.81289</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>832967.2566400002</v>
+        <v>833268.2875799999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>473946.9384299999</v>
+        <v>473946.93843</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1212793.32169</v>
+        <v>1214666.54747</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>595510.7638600002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>602577.7143199999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>620987.88</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>11363.72323</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>16204.27934</v>
+        <v>16204.34134</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>11656.62257</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>7918.01029</v>
+        <v>7918.010290000001</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>16662.93428</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>10751.60749</v>
+        <v>10760.26028</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>10448.0318</v>
+        <v>10473.68857</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>8968.12959</v>
+        <v>8971.894179999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>12132.39437</v>
@@ -2813,205 +2954,233 @@
         <v>19441.866</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>16706.77658</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>16816.89998</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>28913.482</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>17251.73772</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>31886.76834</v>
+        <v>31888.78257</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>23561.18846</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>16992.97443</v>
+        <v>17011.69558</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>35065.05089</v>
+        <v>35065.47461</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>26929.33069</v>
+        <v>27058.83367</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>38660.97967</v>
+        <v>48271.01092999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>33355.61349</v>
+        <v>33362.29738</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>42813.69816</v>
+        <v>42813.69816000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>114386.49011</v>
+        <v>114530.18877</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>47886.96173999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>51692.27807</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>68452.995</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>111205.48892</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>113777.65441</v>
+        <v>113777.66064</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>894270.96179</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>168968.82948</v>
+        <v>172188.07288</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>189898.84653</v>
+        <v>191074.35639</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>574141.8655699999</v>
+        <v>581040.29481</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>288892.27789</v>
+        <v>304559.11339</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>790643.51356</v>
+        <v>790934.0960199999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>419000.8459</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1078964.96558</v>
+        <v>1080694.4927</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>530917.0255400001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>534068.5362699999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>523621.403</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>838675.1449300001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>850929.47063</v>
+        <v>850923.9686499999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>214803.01748</v>
+        <v>214875.81508</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1085011.30866</v>
+        <v>1072234.9145</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1193600.93406</v>
+        <v>1193381.66129</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>936041.0960899999</v>
+        <v>918503.40575</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1549702.16579</v>
+        <v>1541676.5525</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2202053.26023</v>
+        <v>2206464.79295</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3277113.263950001</v>
+        <v>3277113.26395</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1535578.46828</v>
+        <v>1534708.08191</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2860614.00282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2921200.95261</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2559756.305</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>141185.57341</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>144065.08083</v>
+        <v>144071.01263</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>191622.65235</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>201280.06389</v>
+        <v>201561.9728</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>251154.69506</v>
+        <v>251870.06595</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>283016.5115</v>
+        <v>284730.16762</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>332857.15808</v>
+        <v>350893.18182</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>564966.27072</v>
+        <v>566349.1733599999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>677807.90292</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>681831.5462400001</v>
+        <v>684165.6811099999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>802063.80394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>813466.95202</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>683316.6800000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>697489.57152</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>706864.3898</v>
+        <v>706852.9560199999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>23180.36513000001</v>
+        <v>23253.16273000002</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>883731.2447699999</v>
+        <v>870672.9417000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>942446.2389999999</v>
+        <v>941511.5953399999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>653024.58459</v>
+        <v>633773.23813</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1216845.00771</v>
+        <v>1190783.37068</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1637086.98951</v>
+        <v>1640115.61959</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>2599305.36103</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>853746.92204</v>
+        <v>850542.4008000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2058550.19888</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2107734.00059</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1876439.625</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>17960</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>18763</v>
+        <v>18765</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>19690</v>
+        <v>19693</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>20005</v>
+        <v>20041</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>20999</v>
+        <v>21070</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>21429</v>
+        <v>21582</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>21991</v>
+        <v>22365</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>23151</v>
+        <v>23238</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>24707</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>24916</v>
+        <v>25620</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>24692</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>25997</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>26684</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>